--- a/backend/Elo_Woman.xlsx
+++ b/backend/Elo_Woman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\Developpement\Claude\tennis-pronostics\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4942C67-ACDB-46A3-82EA-E41ACFCB4539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3BE48-A3C6-4082-82AE-8E31BA1893DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1FEE94B1-ED0A-4ECC-9066-C34C3E46E41B}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Iga Swiatek</t>
   </si>
   <si>
-    <t>Coco Gauff</t>
-  </si>
-  <si>
     <t>Mirra Andreeva</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Jessica Pegula</t>
   </si>
   <si>
-    <t>Paula Badosa</t>
-  </si>
-  <si>
     <t>Amanda Anisimova</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Sofia Kenin</t>
   </si>
   <si>
-    <t>Danielle Collins</t>
-  </si>
-  <si>
     <t>Emma Navarro</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>Maria Sakkari</t>
   </si>
   <si>
-    <t>Xin Yu Wang</t>
-  </si>
-  <si>
     <t>Elena Gabriela Ruse</t>
   </si>
   <si>
@@ -221,15 +209,6 @@
     <t>Kaja Juvan</t>
   </si>
   <si>
-    <t>Leylah Fernandez</t>
-  </si>
-  <si>
-    <t>Bianca Andreescu</t>
-  </si>
-  <si>
-    <t>Camila Osorio</t>
-  </si>
-  <si>
     <t>Magdalena Frech</t>
   </si>
   <si>
@@ -260,9 +239,6 @@
     <t>Ajla Tomljanovic</t>
   </si>
   <si>
-    <t>Greet Minnen</t>
-  </si>
-  <si>
     <t>Elina Avanesyan</t>
   </si>
   <si>
@@ -278,15 +254,9 @@
     <t>Ann Li</t>
   </si>
   <si>
-    <t>Lesia Tsurenko</t>
-  </si>
-  <si>
     <t>Viktorija Golubic</t>
   </si>
   <si>
-    <t>Irina Camelia Begu</t>
-  </si>
-  <si>
     <t>Mayar Sherif</t>
   </si>
   <si>
@@ -425,9 +395,6 @@
     <t>Sara Errani</t>
   </si>
   <si>
-    <t>Anna Karolina Schmiedlova</t>
-  </si>
-  <si>
     <t>Ena Shibahara</t>
   </si>
   <si>
@@ -440,9 +407,6 @@
     <t>Xiyu Wang</t>
   </si>
   <si>
-    <t>Nuria Parrizas Diaz</t>
-  </si>
-  <si>
     <t>Yuliia Starodubtseva</t>
   </si>
   <si>
@@ -506,9 +470,6 @@
     <t>Alina Korneeva</t>
   </si>
   <si>
-    <t>Anna Lena Friedsam</t>
-  </si>
-  <si>
     <t>Zarina Diyas</t>
   </si>
   <si>
@@ -536,9 +497,6 @@
     <t>Lucrezia Stefanini</t>
   </si>
   <si>
-    <t>Tiantsoa Sarah Rakotomanga Rajaonah</t>
-  </si>
-  <si>
     <t>Priscilla Hon</t>
   </si>
   <si>
@@ -668,12 +626,6 @@
     <t>Joanna Garland</t>
   </si>
   <si>
-    <t>Tara Wurth</t>
-  </si>
-  <si>
-    <t>Jodie Burrage</t>
-  </si>
-  <si>
     <t>Julie Belgraver</t>
   </si>
   <si>
@@ -713,18 +665,12 @@
     <t>Sijia Wei</t>
   </si>
   <si>
-    <t>Guiomar Maristany Zuleta De Reales</t>
-  </si>
-  <si>
     <t>Carole Monnet</t>
   </si>
   <si>
     <t>Arina Rodionova</t>
   </si>
   <si>
-    <t>Anastasiya Soboleva</t>
-  </si>
-  <si>
     <t>Marina Bassols Ribera</t>
   </si>
   <si>
@@ -809,9 +755,6 @@
     <t>Susan Bandecchi</t>
   </si>
   <si>
-    <t>Noma Noha Akugue</t>
-  </si>
-  <si>
     <t>Marie Benoit</t>
   </si>
   <si>
@@ -875,9 +818,6 @@
     <t>Maria Timofeeva</t>
   </si>
   <si>
-    <t>Aneta Kladivova</t>
-  </si>
-  <si>
     <t>Angela Fita Boluda</t>
   </si>
   <si>
@@ -929,15 +869,9 @@
     <t>Nikola Bartunkova</t>
   </si>
   <si>
-    <t>Irina Bara</t>
-  </si>
-  <si>
     <t>Kyoka Okamura</t>
   </si>
   <si>
-    <t>Caroline Uebelhoer</t>
-  </si>
-  <si>
     <t>Robin Anderson</t>
   </si>
   <si>
@@ -950,15 +884,9 @@
     <t>Kajsa Rinaldo Persson</t>
   </si>
   <si>
-    <t>Carolina Alves</t>
-  </si>
-  <si>
     <t>Yuliya Hatouka</t>
   </si>
   <si>
-    <t>Raluka Serban</t>
-  </si>
-  <si>
     <t>Gabriela Andrea Knutson</t>
   </si>
   <si>
@@ -968,9 +896,6 @@
     <t>Tina Nadine Smith</t>
   </si>
   <si>
-    <t>Yaroslava Bartashevich</t>
-  </si>
-  <si>
     <t>Valeria Savinykh</t>
   </si>
   <si>
@@ -992,9 +917,6 @@
     <t>Amelia Rajecki</t>
   </si>
   <si>
-    <t>Kateryna Bondarenko</t>
-  </si>
-  <si>
     <t>Jaimee Fourlis</t>
   </si>
   <si>
@@ -1136,9 +1058,6 @@
     <t>Zongyu Li</t>
   </si>
   <si>
-    <t>Ylena In Albon</t>
-  </si>
-  <si>
     <t>Yidi Yang</t>
   </si>
   <si>
@@ -1166,9 +1085,6 @@
     <t>Isabella Shinikova</t>
   </si>
   <si>
-    <t>Nastasja Schunk</t>
-  </si>
-  <si>
     <t>Mei Yamaguchi</t>
   </si>
   <si>
@@ -1178,9 +1094,6 @@
     <t>Katrina Scott</t>
   </si>
   <si>
-    <t>Jia Jing Lu</t>
-  </si>
-  <si>
     <t>Sahaja Yamalapalli</t>
   </si>
   <si>
@@ -1337,9 +1250,6 @@
     <t>Alice Robbe</t>
   </si>
   <si>
-    <t>Tiphanie Fiquet</t>
-  </si>
-  <si>
     <t>Ksenia Zaytseva</t>
   </si>
   <si>
@@ -1397,9 +1307,6 @@
     <t>Maria Kozyreva</t>
   </si>
   <si>
-    <t>Ye Xin Ma</t>
-  </si>
-  <si>
     <t>Amina Anshba</t>
   </si>
   <si>
@@ -1520,9 +1427,6 @@
     <t>Alana Smith</t>
   </si>
   <si>
-    <t>Julieta Lara Estable</t>
-  </si>
-  <si>
     <t>Yuki Naito</t>
   </si>
   <si>
@@ -1553,9 +1457,6 @@
     <t>Ekaterina Ovcharenko</t>
   </si>
   <si>
-    <t>Ya Yi Yang</t>
-  </si>
-  <si>
     <t>Haley Giavara</t>
   </si>
   <si>
@@ -1599,6 +1500,105 @@
   </si>
   <si>
     <t>ihardElo</t>
+  </si>
+  <si>
+    <t>Cori Gauff</t>
+  </si>
+  <si>
+    <t>Paula Badosa Gibert</t>
+  </si>
+  <si>
+    <t>Danielle Rose Collins</t>
+  </si>
+  <si>
+    <t>Xinyu Wang</t>
+  </si>
+  <si>
+    <t>Leylah Annie Fernandez</t>
+  </si>
+  <si>
+    <t>Bianca Vanessa Andreescu</t>
+  </si>
+  <si>
+    <t>Maria Camila Osorio Serrano</t>
+  </si>
+  <si>
+    <t>Greetje Minnen</t>
+  </si>
+  <si>
+    <t>Lesya Tsurenko</t>
+  </si>
+  <si>
+    <t>Irina-Camelia Begu</t>
+  </si>
+  <si>
+    <t>Anna Schmiedlova</t>
+  </si>
+  <si>
+    <t>Nuria Parrizas-Diaz</t>
+  </si>
+  <si>
+    <t>Anna-Lena Friedsam</t>
+  </si>
+  <si>
+    <t>Tiantsoa Rakotomanga Rajaonah</t>
+  </si>
+  <si>
+    <t>Tara Wuerth</t>
+  </si>
+  <si>
+    <t>Jodie Anna Burrage</t>
+  </si>
+  <si>
+    <t>Guiomar Zuleta De Reales</t>
+  </si>
+  <si>
+    <t>Anastasiia Sobolieva</t>
+  </si>
+  <si>
+    <t>Noma Akugue Noha</t>
+  </si>
+  <si>
+    <t>Aneta Kucmova</t>
+  </si>
+  <si>
+    <t>Irina Maria Bara</t>
+  </si>
+  <si>
+    <t>Caroline Werner</t>
+  </si>
+  <si>
+    <t>Carolina Meligeni Alves</t>
+  </si>
+  <si>
+    <t>Raluca Georgiana Serban</t>
+  </si>
+  <si>
+    <t>Yara Bartashevich</t>
+  </si>
+  <si>
+    <t>Kateryna Volodko</t>
+  </si>
+  <si>
+    <t>Ylena In-Albon</t>
+  </si>
+  <si>
+    <t>Nastasja Mariana Schunk</t>
+  </si>
+  <si>
+    <t>Jia-Jing Lu</t>
+  </si>
+  <si>
+    <t>Tiphanie Lemaitre</t>
+  </si>
+  <si>
+    <t>Yexin Ma</t>
+  </si>
+  <si>
+    <t>Julieta Estable</t>
+  </si>
+  <si>
+    <t>Ya-Yi Yang</t>
   </si>
 </sst>
 </file>
@@ -2021,38 +2021,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CBA68-BBF0-46C7-B246-8CD2165F2590}">
   <dimension ref="A1:I516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="I493" sqref="I493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.109375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="6" width="9.88671875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="20.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2098,9 +2098,9 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>488</v>
       </c>
       <c r="B4" s="5">
         <v>2132.4</v>
@@ -2121,9 +2121,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
         <v>2061.9</v>
@@ -2144,9 +2144,9 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>2053.8000000000002</v>
@@ -2167,9 +2167,9 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>2008.3</v>
@@ -2190,9 +2190,9 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5">
         <v>2007.6</v>
@@ -2213,9 +2213,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
         <v>2006.3</v>
@@ -2236,9 +2236,9 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5">
         <v>2004.8</v>
@@ -2259,9 +2259,9 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5">
         <v>1992.2</v>
@@ -2282,9 +2282,9 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>489</v>
       </c>
       <c r="B12" s="5">
         <v>1941.9</v>
@@ -2305,9 +2305,9 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>1935.9</v>
@@ -2328,9 +2328,9 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
         <v>1933.3</v>
@@ -2351,9 +2351,9 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>1932.6</v>
@@ -2374,9 +2374,9 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5">
         <v>1930.2</v>
@@ -2397,9 +2397,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5">
         <v>1928.3</v>
@@ -2420,9 +2420,9 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5">
         <v>1916.7</v>
@@ -2443,9 +2443,9 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>1913.3</v>
@@ -2466,9 +2466,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5">
         <v>1900</v>
@@ -2489,9 +2489,9 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>1899.2</v>
@@ -2512,9 +2512,9 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5">
         <v>1895.3</v>
@@ -2535,9 +2535,9 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5">
         <v>1890.6</v>
@@ -2558,9 +2558,9 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5">
         <v>1889.9</v>
@@ -2581,9 +2581,9 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>1886.1</v>
@@ -2604,9 +2604,9 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>1878.6</v>
@@ -2627,9 +2627,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>490</v>
       </c>
       <c r="B27" s="5">
         <v>1878.5</v>
@@ -2650,9 +2650,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5">
         <v>1876.6</v>
@@ -2673,9 +2673,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>1875.8</v>
@@ -2696,9 +2696,9 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5">
         <v>1873.3</v>
@@ -2719,9 +2719,9 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5">
         <v>1871.1</v>
@@ -2742,9 +2742,9 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5">
         <v>1864.4</v>
@@ -2765,9 +2765,9 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5">
         <v>1864</v>
@@ -2788,9 +2788,9 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5">
         <v>1857.4</v>
@@ -2811,9 +2811,9 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="5">
         <v>1855.8</v>
@@ -2834,9 +2834,9 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="5">
         <v>1844.9</v>
@@ -2857,9 +2857,9 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5">
         <v>1844.7</v>
@@ -2880,9 +2880,9 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="5">
         <v>1843.7</v>
@@ -2903,9 +2903,9 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="5">
         <v>1843.7</v>
@@ -2926,9 +2926,9 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="5">
         <v>1842.9</v>
@@ -2949,9 +2949,9 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="5">
         <v>1840.4</v>
@@ -2972,9 +2972,9 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="5">
         <v>1839.7</v>
@@ -2995,9 +2995,9 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="5">
         <v>1839.4</v>
@@ -3018,9 +3018,9 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44" s="5">
         <v>1837.2</v>
@@ -3041,9 +3041,9 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5">
         <v>1835</v>
@@ -3064,9 +3064,9 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" s="5">
         <v>1834.4</v>
@@ -3087,9 +3087,9 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5">
         <v>1830.2</v>
@@ -3110,9 +3110,9 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="5">
         <v>1827.7</v>
@@ -3133,9 +3133,9 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5">
         <v>1824.6</v>
@@ -3156,9 +3156,9 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>491</v>
       </c>
       <c r="B50" s="5">
         <v>1819.8</v>
@@ -3179,9 +3179,9 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>1818</v>
@@ -3202,9 +3202,9 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>1815</v>
@@ -3225,9 +3225,9 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>1810.7</v>
@@ -3248,9 +3248,9 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>1809.9</v>
@@ -3271,9 +3271,9 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5">
         <v>1801.8</v>
@@ -3294,9 +3294,9 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" s="5">
         <v>1799.1</v>
@@ -3317,9 +3317,9 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>1795</v>
@@ -3340,9 +3340,9 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>1794.3</v>
@@ -3363,9 +3363,9 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B59" s="5">
         <v>1792.9</v>
@@ -3386,9 +3386,9 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" s="5">
         <v>1792.3</v>
@@ -3409,9 +3409,9 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" s="5">
         <v>1788.4</v>
@@ -3432,9 +3432,9 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" s="5">
         <v>1787.4</v>
@@ -3455,9 +3455,9 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>492</v>
       </c>
       <c r="B63" s="5">
         <v>1786.1</v>
@@ -3478,9 +3478,9 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>493</v>
       </c>
       <c r="B64" s="5">
         <v>1785.4</v>
@@ -3501,9 +3501,9 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>494</v>
       </c>
       <c r="B65" s="5">
         <v>1778.5</v>
@@ -3524,9 +3524,9 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B66" s="5">
         <v>1778.1</v>
@@ -3547,9 +3547,9 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B67" s="5">
         <v>1776.7</v>
@@ -3570,9 +3570,9 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B68" s="5">
         <v>1773.7</v>
@@ -3593,9 +3593,9 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B69" s="5">
         <v>1773.4</v>
@@ -3616,9 +3616,9 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B70" s="5">
         <v>1772.6</v>
@@ -3639,9 +3639,9 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B71" s="5">
         <v>1770.3</v>
@@ -3662,9 +3662,9 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B72" s="5">
         <v>1767.3</v>
@@ -3685,9 +3685,9 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B73" s="5">
         <v>1765.7</v>
@@ -3708,9 +3708,9 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B74" s="5">
         <v>1761.3</v>
@@ -3731,9 +3731,9 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B75" s="5">
         <v>1760.1</v>
@@ -3754,9 +3754,9 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>495</v>
       </c>
       <c r="B76" s="5">
         <v>1759.1</v>
@@ -3777,9 +3777,9 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B77" s="5">
         <v>1758.2</v>
@@ -3800,9 +3800,9 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B78" s="5">
         <v>1757.7</v>
@@ -3823,9 +3823,9 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B79" s="5">
         <v>1755.3</v>
@@ -3846,9 +3846,9 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B80" s="5">
         <v>1746.8</v>
@@ -3869,9 +3869,9 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B81" s="5">
         <v>1744.7</v>
@@ -3892,9 +3892,9 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="B82" s="5">
         <v>1744.4</v>
@@ -3915,9 +3915,9 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B83" s="5">
         <v>1741.7</v>
@@ -3938,9 +3938,9 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="B84" s="5">
         <v>1741</v>
@@ -3961,9 +3961,9 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B85" s="5">
         <v>1737.8</v>
@@ -3984,9 +3984,9 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B86" s="5">
         <v>1735.3</v>
@@ -4007,9 +4007,9 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B87" s="5">
         <v>1733.4</v>
@@ -4030,9 +4030,9 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B88" s="5">
         <v>1732.8</v>
@@ -4053,9 +4053,9 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B89" s="5">
         <v>1727.9</v>
@@ -4076,9 +4076,9 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B90" s="5">
         <v>1725.2</v>
@@ -4099,9 +4099,9 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B91" s="5">
         <v>1719.7</v>
@@ -4122,9 +4122,9 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B92" s="5">
         <v>1717.1</v>
@@ -4145,9 +4145,9 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B93" s="5">
         <v>1716.2</v>
@@ -4168,9 +4168,9 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B94" s="5">
         <v>1716.1</v>
@@ -4191,9 +4191,9 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B95" s="5">
         <v>1715.7</v>
@@ -4214,9 +4214,9 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B96" s="5">
         <v>1715.3</v>
@@ -4237,9 +4237,9 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B97" s="5">
         <v>1710.3</v>
@@ -4260,9 +4260,9 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B98" s="5">
         <v>1709.6</v>
@@ -4283,9 +4283,9 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B99" s="5">
         <v>1707.3</v>
@@ -4306,9 +4306,9 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B100" s="5">
         <v>1705.3</v>
@@ -4329,9 +4329,9 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B101" s="5">
         <v>1705.2</v>
@@ -4352,9 +4352,9 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B102" s="5">
         <v>1703.6</v>
@@ -4375,9 +4375,9 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B103" s="5">
         <v>1701.7</v>
@@ -4398,9 +4398,9 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B104" s="5">
         <v>1698.6</v>
@@ -4421,9 +4421,9 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B105" s="5">
         <v>1696.1</v>
@@ -4444,9 +4444,9 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B106" s="5">
         <v>1690.1</v>
@@ -4467,9 +4467,9 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B107" s="5">
         <v>1687.7</v>
@@ -4490,9 +4490,9 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B108" s="5">
         <v>1683.9</v>
@@ -4513,9 +4513,9 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B109" s="5">
         <v>1683.6</v>
@@ -4536,9 +4536,9 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B110" s="5">
         <v>1681.8</v>
@@ -4559,9 +4559,9 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B111" s="5">
         <v>1681.1</v>
@@ -4582,9 +4582,9 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B112" s="5">
         <v>1680.5</v>
@@ -4605,9 +4605,9 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B113" s="5">
         <v>1680</v>
@@ -4628,9 +4628,9 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B114" s="5">
         <v>1673.4</v>
@@ -4651,9 +4651,9 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B115" s="5">
         <v>1670.3</v>
@@ -4674,9 +4674,9 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B116" s="5">
         <v>1667.8</v>
@@ -4697,9 +4697,9 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B117" s="5">
         <v>1667.3</v>
@@ -4720,9 +4720,9 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B118" s="5">
         <v>1666.7</v>
@@ -4743,9 +4743,9 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B119" s="5">
         <v>1666.6</v>
@@ -4766,9 +4766,9 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B120" s="5">
         <v>1663.7</v>
@@ -4789,9 +4789,9 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B121" s="5">
         <v>1662.4</v>
@@ -4812,9 +4812,9 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B122" s="5">
         <v>1659.6</v>
@@ -4835,9 +4835,9 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B123" s="5">
         <v>1658.2</v>
@@ -4858,9 +4858,9 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B124" s="5">
         <v>1656.8</v>
@@ -4881,9 +4881,9 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B125" s="5">
         <v>1656.4</v>
@@ -4904,9 +4904,9 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B126" s="5">
         <v>1653.8</v>
@@ -4927,9 +4927,9 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B127" s="5">
         <v>1653</v>
@@ -4950,9 +4950,9 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B128" s="5">
         <v>1652.7</v>
@@ -4973,9 +4973,9 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B129" s="5">
         <v>1652.7</v>
@@ -4996,9 +4996,9 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B130" s="5">
         <v>1642.6</v>
@@ -5019,9 +5019,9 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="B131" s="5">
         <v>1642.6</v>
@@ -5042,9 +5042,9 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B132" s="5">
         <v>1642.5</v>
@@ -5065,9 +5065,9 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B133" s="5">
         <v>1641.4</v>
@@ -5088,9 +5088,9 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B134" s="5">
         <v>1641.1</v>
@@ -5111,9 +5111,9 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B135" s="5">
         <v>1641</v>
@@ -5134,9 +5134,9 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>134</v>
+        <v>499</v>
       </c>
       <c r="B136" s="5">
         <v>1640.7</v>
@@ -5157,9 +5157,9 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B137" s="5">
         <v>1640</v>
@@ -5180,9 +5180,9 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B138" s="5">
         <v>1639.9</v>
@@ -5203,9 +5203,9 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B139" s="5">
         <v>1639.3</v>
@@ -5226,9 +5226,9 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B140" s="5">
         <v>1637.7</v>
@@ -5249,9 +5249,9 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B141" s="5">
         <v>1635.4</v>
@@ -5272,9 +5272,9 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B142" s="5">
         <v>1633.7</v>
@@ -5295,9 +5295,9 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B143" s="5">
         <v>1633.2</v>
@@ -5318,9 +5318,9 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B144" s="5">
         <v>1633.1</v>
@@ -5341,9 +5341,9 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B145" s="5">
         <v>1632.8</v>
@@ -5364,9 +5364,9 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B146" s="5">
         <v>1632.3</v>
@@ -5387,9 +5387,9 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B147" s="5">
         <v>1626.4</v>
@@ -5410,9 +5410,9 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B148" s="5">
         <v>1626</v>
@@ -5433,9 +5433,9 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B149" s="5">
         <v>1624.4</v>
@@ -5456,9 +5456,9 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B150" s="5">
         <v>1624</v>
@@ -5479,9 +5479,9 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B151" s="5">
         <v>1623.4</v>
@@ -5502,9 +5502,9 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B152" s="5">
         <v>1620</v>
@@ -5525,9 +5525,9 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B153" s="5">
         <v>1619.8</v>
@@ -5548,9 +5548,9 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B154" s="5">
         <v>1619.7</v>
@@ -5571,9 +5571,9 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B155" s="5">
         <v>1617.5</v>
@@ -5594,9 +5594,9 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B156" s="5">
         <v>1615.6</v>
@@ -5617,9 +5617,9 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B157" s="5">
         <v>1614.2</v>
@@ -5640,9 +5640,9 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>156</v>
+        <v>500</v>
       </c>
       <c r="B158" s="5">
         <v>1613.9</v>
@@ -5663,9 +5663,9 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B159" s="5">
         <v>1612.8</v>
@@ -5686,9 +5686,9 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B160" s="5">
         <v>1612.4</v>
@@ -5709,9 +5709,9 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
     </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B161" s="5">
         <v>1612.3</v>
@@ -5732,9 +5732,9 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B162" s="5">
         <v>1611.1</v>
@@ -5755,9 +5755,9 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B163" s="5">
         <v>1610.2</v>
@@ -5778,9 +5778,9 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B164" s="5">
         <v>1609.8</v>
@@ -5801,9 +5801,9 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B165" s="5">
         <v>1606.5</v>
@@ -5824,9 +5824,9 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B166" s="5">
         <v>1606.5</v>
@@ -5847,9 +5847,9 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B167" s="5">
         <v>1605</v>
@@ -5870,9 +5870,9 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" s="3" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>166</v>
+        <v>501</v>
       </c>
       <c r="B168" s="5">
         <v>1603.2</v>
@@ -5893,9 +5893,9 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B169" s="5">
         <v>1601.8</v>
@@ -5916,9 +5916,9 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B170" s="5">
         <v>1601.7</v>
@@ -5939,9 +5939,9 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B171" s="5">
         <v>1601</v>
@@ -5962,9 +5962,9 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B172" s="5">
         <v>1600</v>
@@ -5985,9 +5985,9 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B173" s="5">
         <v>1599.7</v>
@@ -6008,9 +6008,9 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B174" s="5">
         <v>1596.9</v>
@@ -6031,9 +6031,9 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B175" s="5">
         <v>1595.8</v>
@@ -6054,9 +6054,9 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B176" s="5">
         <v>1594</v>
@@ -6077,9 +6077,9 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B177" s="5">
         <v>1593.3</v>
@@ -6100,9 +6100,9 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B178" s="5">
         <v>1590.9</v>
@@ -6123,9 +6123,9 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B179" s="5">
         <v>1590.3</v>
@@ -6146,9 +6146,9 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B180" s="5">
         <v>1589.8</v>
@@ -6169,9 +6169,9 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B181" s="5">
         <v>1589.8</v>
@@ -6192,9 +6192,9 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B182" s="5">
         <v>1588.9</v>
@@ -6215,9 +6215,9 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B183" s="5">
         <v>1588.7</v>
@@ -6238,9 +6238,9 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B184" s="5">
         <v>1588.4</v>
@@ -6261,9 +6261,9 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B185" s="5">
         <v>1586.2</v>
@@ -6284,9 +6284,9 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B186" s="5">
         <v>1583.6</v>
@@ -6307,9 +6307,9 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B187" s="5">
         <v>1582.4</v>
@@ -6330,9 +6330,9 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
     </row>
-    <row r="188" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B188" s="5">
         <v>1582.2</v>
@@ -6353,9 +6353,9 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
     </row>
-    <row r="189" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B189" s="5">
         <v>1581.7</v>
@@ -6376,9 +6376,9 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
     </row>
-    <row r="190" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B190" s="5">
         <v>1579.9</v>
@@ -6399,9 +6399,9 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
     </row>
-    <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B191" s="5">
         <v>1577.9</v>
@@ -6422,9 +6422,9 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
     </row>
-    <row r="192" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B192" s="5">
         <v>1576.3</v>
@@ -6445,9 +6445,9 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
     </row>
-    <row r="193" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B193" s="5">
         <v>1576</v>
@@ -6468,9 +6468,9 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
     </row>
-    <row r="194" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B194" s="5">
         <v>1575.6</v>
@@ -6491,9 +6491,9 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
     </row>
-    <row r="195" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B195" s="5">
         <v>1575.3</v>
@@ -6514,9 +6514,9 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
     </row>
-    <row r="196" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B196" s="5">
         <v>1574.4</v>
@@ -6537,9 +6537,9 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
     </row>
-    <row r="197" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B197" s="5">
         <v>1574.1</v>
@@ -6560,9 +6560,9 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
     </row>
-    <row r="198" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B198" s="5">
         <v>1573.8</v>
@@ -6583,9 +6583,9 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
     </row>
-    <row r="199" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B199" s="5">
         <v>1572.7</v>
@@ -6606,9 +6606,9 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
     </row>
-    <row r="200" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B200" s="5">
         <v>1570.7</v>
@@ -6629,9 +6629,9 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
     </row>
-    <row r="201" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B201" s="5">
         <v>1570.7</v>
@@ -6652,9 +6652,9 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
     </row>
-    <row r="202" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B202" s="5">
         <v>1567.8</v>
@@ -6675,9 +6675,9 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
     </row>
-    <row r="203" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B203" s="5">
         <v>1566.8</v>
@@ -6698,9 +6698,9 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B204" s="5">
         <v>1565.6</v>
@@ -6721,9 +6721,9 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
     </row>
-    <row r="205" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B205" s="5">
         <v>1565</v>
@@ -6744,9 +6744,9 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
     </row>
-    <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B206" s="5">
         <v>1564.5</v>
@@ -6767,9 +6767,9 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
     </row>
-    <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B207" s="5">
         <v>1563.5</v>
@@ -6790,9 +6790,9 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
     </row>
-    <row r="208" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B208" s="5">
         <v>1562.9</v>
@@ -6813,9 +6813,9 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
     </row>
-    <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B209" s="5">
         <v>1561.6</v>
@@ -6836,9 +6836,9 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
     </row>
-    <row r="210" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B210" s="5">
         <v>1558.5</v>
@@ -6859,9 +6859,9 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
     </row>
-    <row r="211" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B211" s="5">
         <v>1557.3</v>
@@ -6882,9 +6882,9 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
     </row>
-    <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>210</v>
+        <v>502</v>
       </c>
       <c r="B212" s="5">
         <v>1555.7</v>
@@ -6905,9 +6905,9 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
     </row>
-    <row r="213" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>211</v>
+        <v>503</v>
       </c>
       <c r="B213" s="5">
         <v>1555.6</v>
@@ -6928,9 +6928,9 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
     </row>
-    <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B214" s="5">
         <v>1554.6</v>
@@ -6951,9 +6951,9 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
     </row>
-    <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B215" s="5">
         <v>1553.9</v>
@@ -6974,9 +6974,9 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
     </row>
-    <row r="216" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B216" s="5">
         <v>1552.8</v>
@@ -6997,9 +6997,9 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
     </row>
-    <row r="217" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B217" s="5">
         <v>1552.1</v>
@@ -7020,9 +7020,9 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
     </row>
-    <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B218" s="5">
         <v>1550.3</v>
@@ -7043,9 +7043,9 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
     </row>
-    <row r="219" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B219" s="5">
         <v>1549.7</v>
@@ -7066,9 +7066,9 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
     </row>
-    <row r="220" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B220" s="5">
         <v>1549</v>
@@ -7089,9 +7089,9 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
     </row>
-    <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B221" s="5">
         <v>1548.2</v>
@@ -7112,9 +7112,9 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
     </row>
-    <row r="222" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B222" s="5">
         <v>1542.1</v>
@@ -7135,9 +7135,9 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
     </row>
-    <row r="223" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B223" s="5">
         <v>1542</v>
@@ -7158,9 +7158,9 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
     </row>
-    <row r="224" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B224" s="5">
         <v>1540.2</v>
@@ -7181,9 +7181,9 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
     </row>
-    <row r="225" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B225" s="5">
         <v>1536.9</v>
@@ -7204,9 +7204,9 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
     </row>
-    <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B226" s="5">
         <v>1535.7</v>
@@ -7227,9 +7227,9 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
     </row>
-    <row r="227" spans="1:9" s="3" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>225</v>
+        <v>504</v>
       </c>
       <c r="B227" s="5">
         <v>1535.3</v>
@@ -7250,9 +7250,9 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
     </row>
-    <row r="228" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B228" s="5">
         <v>1531.9</v>
@@ -7273,9 +7273,9 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
     </row>
-    <row r="229" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B229" s="5">
         <v>1531.1</v>
@@ -7296,9 +7296,9 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
     </row>
-    <row r="230" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>228</v>
+        <v>505</v>
       </c>
       <c r="B230" s="5">
         <v>1529.5</v>
@@ -7319,9 +7319,9 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
     </row>
-    <row r="231" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B231" s="5">
         <v>1528.4</v>
@@ -7342,9 +7342,9 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
     </row>
-    <row r="232" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B232" s="5">
         <v>1528</v>
@@ -7365,9 +7365,9 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
     </row>
-    <row r="233" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B233" s="5">
         <v>1525.8</v>
@@ -7388,9 +7388,9 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
     </row>
-    <row r="234" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B234" s="5">
         <v>1520.2</v>
@@ -7411,9 +7411,9 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
-    <row r="235" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B235" s="5">
         <v>1520.1</v>
@@ -7434,9 +7434,9 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
-    <row r="236" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B236" s="5">
         <v>1519.8</v>
@@ -7457,9 +7457,9 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
     </row>
-    <row r="237" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B237" s="5">
         <v>1519.2</v>
@@ -7480,9 +7480,9 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
     </row>
-    <row r="238" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B238" s="5">
         <v>1518.3</v>
@@ -7503,9 +7503,9 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
     </row>
-    <row r="239" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B239" s="5">
         <v>1515.3</v>
@@ -7526,9 +7526,9 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
     </row>
-    <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B240" s="5">
         <v>1514.7</v>
@@ -7549,9 +7549,9 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
     </row>
-    <row r="241" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B241" s="5">
         <v>1511.2</v>
@@ -7572,9 +7572,9 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B242" s="5">
         <v>1509.6</v>
@@ -7595,9 +7595,9 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
-    <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B243" s="5">
         <v>1508.5</v>
@@ -7618,9 +7618,9 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
-    <row r="244" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B244" s="5">
         <v>1506.9</v>
@@ -7641,9 +7641,9 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
     </row>
-    <row r="245" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B245" s="5">
         <v>1506.2</v>
@@ -7664,9 +7664,9 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
-    <row r="246" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B246" s="5">
         <v>1503.2</v>
@@ -7687,9 +7687,9 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
     </row>
-    <row r="247" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B247" s="5">
         <v>1502.1</v>
@@ -7710,9 +7710,9 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
-    <row r="248" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B248" s="5">
         <v>1501.8</v>
@@ -7733,9 +7733,9 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
-    <row r="249" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B249" s="5">
         <v>1501.1</v>
@@ -7756,9 +7756,9 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
-    <row r="250" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B250" s="5">
         <v>1500</v>
@@ -7779,9 +7779,9 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
     </row>
-    <row r="251" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B251" s="5">
         <v>1495.6</v>
@@ -7802,9 +7802,9 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
-    <row r="252" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B252" s="5">
         <v>1493.1</v>
@@ -7825,9 +7825,9 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
     </row>
-    <row r="253" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B253" s="5">
         <v>1492.6</v>
@@ -7848,9 +7848,9 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
     </row>
-    <row r="254" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B254" s="5">
         <v>1489.1</v>
@@ -7871,9 +7871,9 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
     </row>
-    <row r="255" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B255" s="5">
         <v>1486.7</v>
@@ -7894,9 +7894,9 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B256" s="5">
         <v>1486.6</v>
@@ -7917,9 +7917,9 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
     </row>
-    <row r="257" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B257" s="5">
         <v>1486.1</v>
@@ -7940,9 +7940,9 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
     </row>
-    <row r="258" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B258" s="5">
         <v>1481.8</v>
@@ -7963,9 +7963,9 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
-    <row r="259" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>257</v>
+        <v>506</v>
       </c>
       <c r="B259" s="5">
         <v>1480.2</v>
@@ -7986,9 +7986,9 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
-    <row r="260" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B260" s="5">
         <v>1479.7</v>
@@ -8009,9 +8009,9 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
     </row>
-    <row r="261" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B261" s="5">
         <v>1477.9</v>
@@ -8032,9 +8032,9 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
-    <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B262" s="5">
         <v>1476.9</v>
@@ -8055,9 +8055,9 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
     </row>
-    <row r="263" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B263" s="5">
         <v>1476.9</v>
@@ -8078,9 +8078,9 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
     </row>
-    <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B264" s="5">
         <v>1475.2</v>
@@ -8101,9 +8101,9 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
     </row>
-    <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B265" s="5">
         <v>1473.3</v>
@@ -8124,9 +8124,9 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
     </row>
-    <row r="266" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B266" s="5">
         <v>1472.8</v>
@@ -8147,9 +8147,9 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
     </row>
-    <row r="267" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B267" s="5">
         <v>1472.6</v>
@@ -8170,9 +8170,9 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
     </row>
-    <row r="268" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B268" s="5">
         <v>1471.9</v>
@@ -8193,9 +8193,9 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
     </row>
-    <row r="269" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B269" s="5">
         <v>1469</v>
@@ -8216,9 +8216,9 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
     </row>
-    <row r="270" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B270" s="5">
         <v>1467.4</v>
@@ -8239,9 +8239,9 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
     </row>
-    <row r="271" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B271" s="5">
         <v>1467.1</v>
@@ -8262,9 +8262,9 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
     </row>
-    <row r="272" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B272" s="5">
         <v>1466.7</v>
@@ -8285,9 +8285,9 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
     </row>
-    <row r="273" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="B273" s="5">
         <v>1465.7</v>
@@ -8308,9 +8308,9 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
     </row>
-    <row r="274" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B274" s="5">
         <v>1464.5</v>
@@ -8331,9 +8331,9 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
     </row>
-    <row r="275" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B275" s="5">
         <v>1463.2</v>
@@ -8354,9 +8354,9 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
     </row>
-    <row r="276" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B276" s="5">
         <v>1463.1</v>
@@ -8377,9 +8377,9 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
     </row>
-    <row r="277" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B277" s="5">
         <v>1461.8</v>
@@ -8400,9 +8400,9 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
-    <row r="278" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="B278" s="5">
         <v>1459.4</v>
@@ -8423,9 +8423,9 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
     </row>
-    <row r="279" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B279" s="5">
         <v>1458.3</v>
@@ -8446,9 +8446,9 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
     </row>
-    <row r="280" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B280" s="5">
         <v>1458.2</v>
@@ -8469,9 +8469,9 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
     </row>
-    <row r="281" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>279</v>
+        <v>507</v>
       </c>
       <c r="B281" s="5">
         <v>1457.4</v>
@@ -8492,9 +8492,9 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
     </row>
-    <row r="282" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B282" s="5">
         <v>1456.8</v>
@@ -8515,9 +8515,9 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
     </row>
-    <row r="283" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B283" s="5">
         <v>1456</v>
@@ -8538,9 +8538,9 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
     </row>
-    <row r="284" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B284" s="5">
         <v>1454.5</v>
@@ -8561,9 +8561,9 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
     </row>
-    <row r="285" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B285" s="5">
         <v>1453.2</v>
@@ -8584,9 +8584,9 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
     </row>
-    <row r="286" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B286" s="5">
         <v>1451.6</v>
@@ -8607,9 +8607,9 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
     </row>
-    <row r="287" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B287" s="5">
         <v>1449.8</v>
@@ -8630,9 +8630,9 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
     </row>
-    <row r="288" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B288" s="5">
         <v>1449.6</v>
@@ -8653,9 +8653,9 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
     </row>
-    <row r="289" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B289" s="5">
         <v>1449.1</v>
@@ -8676,9 +8676,9 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
     </row>
-    <row r="290" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B290" s="5">
         <v>1448.8</v>
@@ -8699,9 +8699,9 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
     </row>
-    <row r="291" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B291" s="5">
         <v>1448.4</v>
@@ -8722,9 +8722,9 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
     </row>
-    <row r="292" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B292" s="5">
         <v>1448.1</v>
@@ -8745,9 +8745,9 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
     </row>
-    <row r="293" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B293" s="5">
         <v>1447.4</v>
@@ -8768,9 +8768,9 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
     </row>
-    <row r="294" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B294" s="5">
         <v>1445.6</v>
@@ -8791,9 +8791,9 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
     </row>
-    <row r="295" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B295" s="5">
         <v>1445.1</v>
@@ -8814,9 +8814,9 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
     </row>
-    <row r="296" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B296" s="5">
         <v>1445.1</v>
@@ -8837,9 +8837,9 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
     </row>
-    <row r="297" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B297" s="5">
         <v>1442.3</v>
@@ -8860,9 +8860,9 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
     </row>
-    <row r="298" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B298" s="5">
         <v>1442.2</v>
@@ -8883,9 +8883,9 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
     </row>
-    <row r="299" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>297</v>
+        <v>508</v>
       </c>
       <c r="B299" s="5">
         <v>1442.2</v>
@@ -8906,9 +8906,9 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
     </row>
-    <row r="300" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B300" s="5">
         <v>1441.5</v>
@@ -8929,9 +8929,9 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
     </row>
-    <row r="301" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>299</v>
+        <v>509</v>
       </c>
       <c r="B301" s="5">
         <v>1440.4</v>
@@ -8952,9 +8952,9 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
     </row>
-    <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B302" s="5">
         <v>1440</v>
@@ -8975,9 +8975,9 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
     </row>
-    <row r="303" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B303" s="5">
         <v>1440</v>
@@ -8998,9 +8998,9 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
     </row>
-    <row r="304" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B304" s="5">
         <v>1437.2</v>
@@ -9021,9 +9021,9 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
     </row>
-    <row r="305" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B305" s="5">
         <v>1437.2</v>
@@ -9044,9 +9044,9 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
     </row>
-    <row r="306" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>304</v>
+        <v>510</v>
       </c>
       <c r="B306" s="5">
         <v>1437.1</v>
@@ -9067,9 +9067,9 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
     </row>
-    <row r="307" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B307" s="5">
         <v>1436.2</v>
@@ -9090,9 +9090,9 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
     </row>
-    <row r="308" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>306</v>
+        <v>511</v>
       </c>
       <c r="B308" s="5">
         <v>1434.3</v>
@@ -9113,9 +9113,9 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
     </row>
-    <row r="309" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B309" s="5">
         <v>1434.1</v>
@@ -9136,9 +9136,9 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
     </row>
-    <row r="310" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B310" s="5">
         <v>1431.6</v>
@@ -9159,9 +9159,9 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
     </row>
-    <row r="311" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B311" s="5">
         <v>1431.5</v>
@@ -9182,9 +9182,9 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
     </row>
-    <row r="312" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>310</v>
+        <v>512</v>
       </c>
       <c r="B312" s="5">
         <v>1431.2</v>
@@ -9205,9 +9205,9 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
     </row>
-    <row r="313" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="B313" s="5">
         <v>1429.6</v>
@@ -9228,9 +9228,9 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
     </row>
-    <row r="314" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B314" s="5">
         <v>1429.5</v>
@@ -9251,9 +9251,9 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
     </row>
-    <row r="315" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B315" s="5">
         <v>1429.4</v>
@@ -9274,9 +9274,9 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
     </row>
-    <row r="316" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B316" s="5">
         <v>1428.9</v>
@@ -9297,9 +9297,9 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
     </row>
-    <row r="317" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B317" s="5">
         <v>1428.8</v>
@@ -9320,9 +9320,9 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
     </row>
-    <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B318" s="5">
         <v>1428.7</v>
@@ -9343,9 +9343,9 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
     </row>
-    <row r="319" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B319" s="5">
         <v>1428.3</v>
@@ -9366,9 +9366,9 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
     </row>
-    <row r="320" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>318</v>
+        <v>513</v>
       </c>
       <c r="B320" s="5">
         <v>1426.3</v>
@@ -9389,9 +9389,9 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
     </row>
-    <row r="321" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B321" s="5">
         <v>1424.8</v>
@@ -9412,9 +9412,9 @@
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
     </row>
-    <row r="322" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B322" s="5">
         <v>1424.8</v>
@@ -9435,9 +9435,9 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
     </row>
-    <row r="323" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B323" s="5">
         <v>1423.4</v>
@@ -9458,9 +9458,9 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
     </row>
-    <row r="324" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="B324" s="5">
         <v>1422.6</v>
@@ -9481,9 +9481,9 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
     </row>
-    <row r="325" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B325" s="5">
         <v>1421.6</v>
@@ -9504,9 +9504,9 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
     </row>
-    <row r="326" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B326" s="5">
         <v>1421.5</v>
@@ -9527,9 +9527,9 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
     </row>
-    <row r="327" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B327" s="5">
         <v>1420.9</v>
@@ -9550,9 +9550,9 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
     </row>
-    <row r="328" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B328" s="5">
         <v>1418.6</v>
@@ -9573,9 +9573,9 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
     </row>
-    <row r="329" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B329" s="5">
         <v>1418.5</v>
@@ -9596,9 +9596,9 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
     </row>
-    <row r="330" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B330" s="5">
         <v>1416.3</v>
@@ -9619,9 +9619,9 @@
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
     </row>
-    <row r="331" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B331" s="5">
         <v>1416.1</v>
@@ -9642,9 +9642,9 @@
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
     </row>
-    <row r="332" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B332" s="5">
         <v>1415.7</v>
@@ -9665,9 +9665,9 @@
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
     </row>
-    <row r="333" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="B333" s="5">
         <v>1415.6</v>
@@ -9688,9 +9688,9 @@
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
     </row>
-    <row r="334" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="B334" s="5">
         <v>1415.2</v>
@@ -9711,9 +9711,9 @@
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
     </row>
-    <row r="335" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B335" s="5">
         <v>1415</v>
@@ -9734,9 +9734,9 @@
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
     </row>
-    <row r="336" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B336" s="5">
         <v>1415</v>
@@ -9757,9 +9757,9 @@
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
     </row>
-    <row r="337" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B337" s="5">
         <v>1413.4</v>
@@ -9780,9 +9780,9 @@
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
     </row>
-    <row r="338" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="B338" s="5">
         <v>1413.2</v>
@@ -9803,9 +9803,9 @@
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
     </row>
-    <row r="339" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B339" s="5">
         <v>1410.8</v>
@@ -9826,9 +9826,9 @@
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
     </row>
-    <row r="340" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="B340" s="5">
         <v>1409.8</v>
@@ -9849,9 +9849,9 @@
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
     </row>
-    <row r="341" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="B341" s="5">
         <v>1408.5</v>
@@ -9872,9 +9872,9 @@
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
     </row>
-    <row r="342" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="B342" s="5">
         <v>1408.2</v>
@@ -9895,9 +9895,9 @@
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
     </row>
-    <row r="343" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="B343" s="5">
         <v>1407.8</v>
@@ -9918,9 +9918,9 @@
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
     </row>
-    <row r="344" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="B344" s="5">
         <v>1407.2</v>
@@ -9941,9 +9941,9 @@
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
     </row>
-    <row r="345" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B345" s="5">
         <v>1406.9</v>
@@ -9964,9 +9964,9 @@
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
     </row>
-    <row r="346" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="B346" s="5">
         <v>1405</v>
@@ -9987,9 +9987,9 @@
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
     </row>
-    <row r="347" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B347" s="5">
         <v>1404</v>
@@ -10010,9 +10010,9 @@
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
     </row>
-    <row r="348" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B348" s="5">
         <v>1400.9</v>
@@ -10033,9 +10033,9 @@
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
     </row>
-    <row r="349" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B349" s="5">
         <v>1399.3</v>
@@ -10056,9 +10056,9 @@
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
     </row>
-    <row r="350" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="B350" s="5">
         <v>1397.7</v>
@@ -10079,9 +10079,9 @@
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
     </row>
-    <row r="351" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B351" s="5">
         <v>1397</v>
@@ -10102,9 +10102,9 @@
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
     </row>
-    <row r="352" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B352" s="5">
         <v>1393.1</v>
@@ -10125,9 +10125,9 @@
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
     </row>
-    <row r="353" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B353" s="5">
         <v>1393.1</v>
@@ -10148,9 +10148,9 @@
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
     </row>
-    <row r="354" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B354" s="5">
         <v>1392.6</v>
@@ -10171,9 +10171,9 @@
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
     </row>
-    <row r="355" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B355" s="5">
         <v>1391.2</v>
@@ -10194,9 +10194,9 @@
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
     </row>
-    <row r="356" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B356" s="5">
         <v>1389.8</v>
@@ -10217,9 +10217,9 @@
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
     </row>
-    <row r="357" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B357" s="5">
         <v>1389.6</v>
@@ -10240,9 +10240,9 @@
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
     </row>
-    <row r="358" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B358" s="5">
         <v>1389.4</v>
@@ -10263,9 +10263,9 @@
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
     </row>
-    <row r="359" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B359" s="5">
         <v>1389.2</v>
@@ -10286,9 +10286,9 @@
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
     </row>
-    <row r="360" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="B360" s="5">
         <v>1387.7</v>
@@ -10309,9 +10309,9 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
     </row>
-    <row r="361" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B361" s="5">
         <v>1385.7</v>
@@ -10332,9 +10332,9 @@
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
     </row>
-    <row r="362" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="B362" s="5">
         <v>1385.2</v>
@@ -10355,9 +10355,9 @@
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
     </row>
-    <row r="363" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B363" s="5">
         <v>1384.3</v>
@@ -10378,9 +10378,9 @@
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
     </row>
-    <row r="364" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="B364" s="5">
         <v>1383.9</v>
@@ -10401,9 +10401,9 @@
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
     </row>
-    <row r="365" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B365" s="5">
         <v>1383.8</v>
@@ -10424,9 +10424,9 @@
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
     </row>
-    <row r="366" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B366" s="5">
         <v>1382.6</v>
@@ -10447,9 +10447,9 @@
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
     </row>
-    <row r="367" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B367" s="5">
         <v>1381.5</v>
@@ -10470,9 +10470,9 @@
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
     </row>
-    <row r="368" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="B368" s="5">
         <v>1381.5</v>
@@ -10493,9 +10493,9 @@
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
     </row>
-    <row r="369" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B369" s="5">
         <v>1381.4</v>
@@ -10516,9 +10516,9 @@
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
     </row>
-    <row r="370" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B370" s="5">
         <v>1380.9</v>
@@ -10539,9 +10539,9 @@
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
     </row>
-    <row r="371" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B371" s="5">
         <v>1380</v>
@@ -10562,9 +10562,9 @@
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
     </row>
-    <row r="372" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B372" s="5">
         <v>1379.6</v>
@@ -10585,9 +10585,9 @@
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
     </row>
-    <row r="373" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B373" s="5">
         <v>1378.6</v>
@@ -10608,9 +10608,9 @@
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
     </row>
-    <row r="374" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B374" s="5">
         <v>1377.4</v>
@@ -10631,9 +10631,9 @@
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
     </row>
-    <row r="375" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B375" s="5">
         <v>1375.6</v>
@@ -10654,9 +10654,9 @@
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
     </row>
-    <row r="376" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B376" s="5">
         <v>1374.7</v>
@@ -10677,9 +10677,9 @@
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
     </row>
-    <row r="377" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B377" s="5">
         <v>1373.3</v>
@@ -10700,9 +10700,9 @@
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
     </row>
-    <row r="378" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>376</v>
+        <v>515</v>
       </c>
       <c r="B378" s="5">
         <v>1370.7</v>
@@ -10723,9 +10723,9 @@
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
     </row>
-    <row r="379" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B379" s="5">
         <v>1370.6</v>
@@ -10746,9 +10746,9 @@
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
     </row>
-    <row r="380" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B380" s="5">
         <v>1370.1</v>
@@ -10769,9 +10769,9 @@
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
     </row>
-    <row r="381" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B381" s="5">
         <v>1369.7</v>
@@ -10792,9 +10792,9 @@
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
     </row>
-    <row r="382" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>380</v>
+        <v>516</v>
       </c>
       <c r="B382" s="5">
         <v>1367.8</v>
@@ -10815,9 +10815,9 @@
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
     </row>
-    <row r="383" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B383" s="5">
         <v>1366.3</v>
@@ -10838,9 +10838,9 @@
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
     </row>
-    <row r="384" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B384" s="5">
         <v>1365.6</v>
@@ -10861,9 +10861,9 @@
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
     </row>
-    <row r="385" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B385" s="5">
         <v>1364.9</v>
@@ -10884,9 +10884,9 @@
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
     </row>
-    <row r="386" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B386" s="5">
         <v>1363.4</v>
@@ -10907,9 +10907,9 @@
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
     </row>
-    <row r="387" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B387" s="5">
         <v>1363</v>
@@ -10930,9 +10930,9 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
     </row>
-    <row r="388" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B388" s="5">
         <v>1362.4</v>
@@ -10953,9 +10953,9 @@
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
     </row>
-    <row r="389" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B389" s="5">
         <v>1361.3</v>
@@ -10976,9 +10976,9 @@
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
     </row>
-    <row r="390" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B390" s="5">
         <v>1360.6</v>
@@ -10999,9 +10999,9 @@
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
     </row>
-    <row r="391" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B391" s="5">
         <v>1359.5</v>
@@ -11022,9 +11022,9 @@
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
     </row>
-    <row r="392" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B392" s="5">
         <v>1356.6</v>
@@ -11045,9 +11045,9 @@
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
     </row>
-    <row r="393" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B393" s="5">
         <v>1355.2</v>
@@ -11068,9 +11068,9 @@
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
     </row>
-    <row r="394" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B394" s="5">
         <v>1354.4</v>
@@ -11091,9 +11091,9 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
     </row>
-    <row r="395" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B395" s="5">
         <v>1353.2</v>
@@ -11114,9 +11114,9 @@
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
     </row>
-    <row r="396" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B396" s="5">
         <v>1352.9</v>
@@ -11137,9 +11137,9 @@
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
     </row>
-    <row r="397" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B397" s="5">
         <v>1351.7</v>
@@ -11160,9 +11160,9 @@
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
     </row>
-    <row r="398" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B398" s="5">
         <v>1348.3</v>
@@ -11183,9 +11183,9 @@
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
     </row>
-    <row r="399" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B399" s="5">
         <v>1347.2</v>
@@ -11206,9 +11206,9 @@
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
     </row>
-    <row r="400" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B400" s="5">
         <v>1346.8</v>
@@ -11229,9 +11229,9 @@
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
     </row>
-    <row r="401" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B401" s="5">
         <v>1345.2</v>
@@ -11252,9 +11252,9 @@
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
     </row>
-    <row r="402" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B402" s="5">
         <v>1345.2</v>
@@ -11275,9 +11275,9 @@
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
     </row>
-    <row r="403" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B403" s="5">
         <v>1343.1</v>
@@ -11298,9 +11298,9 @@
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
     </row>
-    <row r="404" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B404" s="5">
         <v>1343.1</v>
@@ -11321,9 +11321,9 @@
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
     </row>
-    <row r="405" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B405" s="5">
         <v>1342.9</v>
@@ -11344,9 +11344,9 @@
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
     </row>
-    <row r="406" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B406" s="5">
         <v>1340.6</v>
@@ -11367,9 +11367,9 @@
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
     </row>
-    <row r="407" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B407" s="5">
         <v>1339.8</v>
@@ -11390,9 +11390,9 @@
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
     </row>
-    <row r="408" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B408" s="5">
         <v>1339.8</v>
@@ -11413,9 +11413,9 @@
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
     </row>
-    <row r="409" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B409" s="5">
         <v>1339.6</v>
@@ -11436,9 +11436,9 @@
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
     </row>
-    <row r="410" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B410" s="5">
         <v>1339.5</v>
@@ -11459,9 +11459,9 @@
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
     </row>
-    <row r="411" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B411" s="5">
         <v>1337.1</v>
@@ -11482,9 +11482,9 @@
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
     </row>
-    <row r="412" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B412" s="5">
         <v>1335.6</v>
@@ -11505,9 +11505,9 @@
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
     </row>
-    <row r="413" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B413" s="5">
         <v>1335.4</v>
@@ -11528,9 +11528,9 @@
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
     </row>
-    <row r="414" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B414" s="5">
         <v>1335</v>
@@ -11551,9 +11551,9 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
     </row>
-    <row r="415" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="B415" s="5">
         <v>1334.7</v>
@@ -11574,9 +11574,9 @@
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
     </row>
-    <row r="416" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B416" s="5">
         <v>1333.5</v>
@@ -11597,9 +11597,9 @@
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
     </row>
-    <row r="417" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="B417" s="5">
         <v>1333</v>
@@ -11620,9 +11620,9 @@
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
     </row>
-    <row r="418" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B418" s="5">
         <v>1328.5</v>
@@ -11643,9 +11643,9 @@
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
     </row>
-    <row r="419" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B419" s="5">
         <v>1328</v>
@@ -11666,9 +11666,9 @@
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
     </row>
-    <row r="420" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B420" s="5">
         <v>1326</v>
@@ -11689,9 +11689,9 @@
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
     </row>
-    <row r="421" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="B421" s="5">
         <v>1321.9</v>
@@ -11712,9 +11712,9 @@
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
     </row>
-    <row r="422" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B422" s="5">
         <v>1321.9</v>
@@ -11735,9 +11735,9 @@
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
     </row>
-    <row r="423" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="B423" s="5">
         <v>1320.5</v>
@@ -11758,9 +11758,9 @@
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
     </row>
-    <row r="424" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B424" s="5">
         <v>1319.9</v>
@@ -11781,9 +11781,9 @@
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
     </row>
-    <row r="425" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="B425" s="5">
         <v>1319.5</v>
@@ -11804,9 +11804,9 @@
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
     </row>
-    <row r="426" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B426" s="5">
         <v>1317.8</v>
@@ -11827,9 +11827,9 @@
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
     </row>
-    <row r="427" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="B427" s="5">
         <v>1317.6</v>
@@ -11850,9 +11850,9 @@
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
     </row>
-    <row r="428" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="B428" s="5">
         <v>1317.3</v>
@@ -11873,9 +11873,9 @@
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
     </row>
-    <row r="429" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="B429" s="5">
         <v>1313</v>
@@ -11896,9 +11896,9 @@
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
     </row>
-    <row r="430" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="B430" s="5">
         <v>1311.9</v>
@@ -11919,9 +11919,9 @@
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
     </row>
-    <row r="431" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="B431" s="5">
         <v>1311.5</v>
@@ -11942,9 +11942,9 @@
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
     </row>
-    <row r="432" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="B432" s="5">
         <v>1307</v>
@@ -11965,9 +11965,9 @@
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
     </row>
-    <row r="433" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B433" s="5">
         <v>1306.2</v>
@@ -11988,9 +11988,9 @@
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
     </row>
-    <row r="434" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="B434" s="5">
         <v>1306</v>
@@ -12011,9 +12011,9 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
     </row>
-    <row r="435" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
       <c r="B435" s="5">
         <v>1304.4000000000001</v>
@@ -12034,9 +12034,9 @@
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
     </row>
-    <row r="436" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B436" s="5">
         <v>1303.2</v>
@@ -12057,9 +12057,9 @@
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
     </row>
-    <row r="437" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B437" s="5">
         <v>1302.9000000000001</v>
@@ -12080,9 +12080,9 @@
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
     </row>
-    <row r="438" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="B438" s="5">
         <v>1302.3</v>
@@ -12103,9 +12103,9 @@
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
     </row>
-    <row r="439" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="B439" s="5">
         <v>1301.4000000000001</v>
@@ -12126,9 +12126,9 @@
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
     </row>
-    <row r="440" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="B440" s="5">
         <v>1298.7</v>
@@ -12149,9 +12149,9 @@
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
     </row>
-    <row r="441" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B441" s="5">
         <v>1298.5999999999999</v>
@@ -12172,9 +12172,9 @@
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
     </row>
-    <row r="442" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B442" s="5">
         <v>1295.8</v>
@@ -12195,9 +12195,9 @@
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
     </row>
-    <row r="443" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B443" s="5">
         <v>1295.4000000000001</v>
@@ -12218,9 +12218,9 @@
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
     </row>
-    <row r="444" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B444" s="5">
         <v>1295.2</v>
@@ -12241,9 +12241,9 @@
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
     </row>
-    <row r="445" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B445" s="5">
         <v>1293.5999999999999</v>
@@ -12264,9 +12264,9 @@
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
     </row>
-    <row r="446" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B446" s="5">
         <v>1291.5</v>
@@ -12287,9 +12287,9 @@
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
     </row>
-    <row r="447" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B447" s="5">
         <v>1289.7</v>
@@ -12310,9 +12310,9 @@
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
     </row>
-    <row r="448" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B448" s="5">
         <v>1288.2</v>
@@ -12333,9 +12333,9 @@
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
     </row>
-    <row r="449" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="B449" s="5">
         <v>1287.8</v>
@@ -12356,9 +12356,9 @@
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
     </row>
-    <row r="450" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B450" s="5">
         <v>1286.5</v>
@@ -12379,9 +12379,9 @@
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
     </row>
-    <row r="451" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B451" s="5">
         <v>1286.4000000000001</v>
@@ -12402,9 +12402,9 @@
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
     </row>
-    <row r="452" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B452" s="5">
         <v>1286.4000000000001</v>
@@ -12425,9 +12425,9 @@
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
     </row>
-    <row r="453" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B453" s="5">
         <v>1286.2</v>
@@ -12448,9 +12448,9 @@
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
     </row>
-    <row r="454" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B454" s="5">
         <v>1285.7</v>
@@ -12471,9 +12471,9 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
     </row>
-    <row r="455" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="B455" s="5">
         <v>1285.7</v>
@@ -12494,9 +12494,9 @@
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
     </row>
-    <row r="456" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="B456" s="5">
         <v>1285.4000000000001</v>
@@ -12517,9 +12517,9 @@
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
     </row>
-    <row r="457" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B457" s="5">
         <v>1281.8</v>
@@ -12540,9 +12540,9 @@
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
     </row>
-    <row r="458" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="B458" s="5">
         <v>1280.9000000000001</v>
@@ -12563,9 +12563,9 @@
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
     </row>
-    <row r="459" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="B459" s="5">
         <v>1280.3</v>
@@ -12586,9 +12586,9 @@
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
     </row>
-    <row r="460" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B460" s="5">
         <v>1278.4000000000001</v>
@@ -12609,9 +12609,9 @@
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
     </row>
-    <row r="461" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="B461" s="5">
         <v>1275.3</v>
@@ -12632,9 +12632,9 @@
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
     </row>
-    <row r="462" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="B462" s="5">
         <v>1271.5</v>
@@ -12655,9 +12655,9 @@
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
     </row>
-    <row r="463" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="B463" s="5">
         <v>1268.8</v>
@@ -12678,9 +12678,9 @@
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
     </row>
-    <row r="464" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="B464" s="5">
         <v>1268.3</v>
@@ -12701,9 +12701,9 @@
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
     </row>
-    <row r="465" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B465" s="5">
         <v>1268</v>
@@ -12724,9 +12724,9 @@
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
     </row>
-    <row r="466" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="B466" s="5">
         <v>1267.5999999999999</v>
@@ -12747,9 +12747,9 @@
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
     </row>
-    <row r="467" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="B467" s="5">
         <v>1265.9000000000001</v>
@@ -12770,9 +12770,9 @@
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
     </row>
-    <row r="468" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="B468" s="5">
         <v>1263.8</v>
@@ -12793,9 +12793,9 @@
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
     </row>
-    <row r="469" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="B469" s="5">
         <v>1262.9000000000001</v>
@@ -12816,9 +12816,9 @@
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
     </row>
-    <row r="470" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="B470" s="5">
         <v>1262</v>
@@ -12839,9 +12839,9 @@
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
     </row>
-    <row r="471" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="B471" s="5">
         <v>1259.5</v>
@@ -12862,9 +12862,9 @@
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
     </row>
-    <row r="472" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="B472" s="5">
         <v>1259.3</v>
@@ -12885,9 +12885,9 @@
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
     </row>
-    <row r="473" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="B473" s="5">
         <v>1257</v>
@@ -12908,9 +12908,9 @@
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
     </row>
-    <row r="474" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="B474" s="5">
         <v>1255.0999999999999</v>
@@ -12931,9 +12931,9 @@
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
     </row>
-    <row r="475" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B475" s="5">
         <v>1254.3</v>
@@ -12954,9 +12954,9 @@
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
     </row>
-    <row r="476" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="B476" s="5">
         <v>1252.2</v>
@@ -12977,9 +12977,9 @@
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
     </row>
-    <row r="477" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B477" s="5">
         <v>1251.7</v>
@@ -13000,9 +13000,9 @@
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
     </row>
-    <row r="478" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="B478" s="5">
         <v>1250.9000000000001</v>
@@ -13023,9 +13023,9 @@
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
     </row>
-    <row r="479" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B479" s="5">
         <v>1247.0999999999999</v>
@@ -13046,9 +13046,9 @@
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
     </row>
-    <row r="480" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="B480" s="5">
         <v>1246.4000000000001</v>
@@ -13069,9 +13069,9 @@
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
     </row>
-    <row r="481" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B481" s="5">
         <v>1243.5</v>
@@ -13092,9 +13092,9 @@
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
     </row>
-    <row r="482" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B482" s="5">
         <v>1238.7</v>
@@ -13115,9 +13115,9 @@
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
     </row>
-    <row r="483" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B483" s="5">
         <v>1234</v>
@@ -13138,9 +13138,9 @@
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
     </row>
-    <row r="484" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="B484" s="5">
         <v>1233.7</v>
@@ -13161,9 +13161,9 @@
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
     </row>
-    <row r="485" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="B485" s="5">
         <v>1231.7</v>
@@ -13184,9 +13184,9 @@
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
     </row>
-    <row r="486" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="B486" s="5">
         <v>1228.5999999999999</v>
@@ -13207,9 +13207,9 @@
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
     </row>
-    <row r="487" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="B487" s="5">
         <v>1221.4000000000001</v>
@@ -13230,9 +13230,9 @@
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
     </row>
-    <row r="488" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="B488" s="5">
         <v>1220.8</v>
@@ -13253,9 +13253,9 @@
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
     </row>
-    <row r="489" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="B489" s="5">
         <v>1220.5999999999999</v>
@@ -13276,9 +13276,9 @@
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
     </row>
-    <row r="490" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="B490" s="5">
         <v>1218</v>
@@ -13299,9 +13299,9 @@
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
     </row>
-    <row r="491" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="B491" s="5">
         <v>1217.8</v>
@@ -13322,9 +13322,9 @@
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
     </row>
-    <row r="492" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="B492" s="5">
         <v>1215.8</v>
@@ -13345,9 +13345,9 @@
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
     </row>
-    <row r="493" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B493" s="5">
         <v>1214</v>
@@ -13368,9 +13368,9 @@
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
     </row>
-    <row r="494" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="B494" s="5">
         <v>1211.9000000000001</v>
@@ -13391,9 +13391,9 @@
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
     </row>
-    <row r="495" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="B495" s="5">
         <v>1209.8</v>
@@ -13414,9 +13414,9 @@
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
     </row>
-    <row r="496" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B496" s="5">
         <v>1209.8</v>
@@ -13437,9 +13437,9 @@
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
     </row>
-    <row r="497" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B497" s="5">
         <v>1206.5</v>
@@ -13460,9 +13460,9 @@
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
     </row>
-    <row r="498" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="B498" s="5">
         <v>1200.9000000000001</v>
@@ -13483,9 +13483,9 @@
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
     </row>
-    <row r="499" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="B499" s="5">
         <v>1199.8</v>
@@ -13506,9 +13506,9 @@
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
     </row>
-    <row r="500" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="B500" s="5">
         <v>1199.5999999999999</v>
@@ -13529,9 +13529,9 @@
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
     </row>
-    <row r="501" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B501" s="5">
         <v>1197.3</v>
@@ -13552,9 +13552,9 @@
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
     </row>
-    <row r="502" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="B502" s="5">
         <v>1177.3</v>
@@ -13575,9 +13575,9 @@
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
     </row>
-    <row r="503" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="B503" s="5">
         <v>1174.4000000000001</v>
@@ -13598,9 +13598,9 @@
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
     </row>
-    <row r="504" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="B504" s="5">
         <v>1164.5999999999999</v>
@@ -13621,9 +13621,9 @@
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
     </row>
-    <row r="505" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="B505" s="5">
         <v>1160.8</v>
@@ -13644,9 +13644,9 @@
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
     </row>
-    <row r="506" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="B506" s="5">
         <v>1160.8</v>
@@ -13667,9 +13667,9 @@
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
     </row>
-    <row r="507" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B507" s="5">
         <v>1155.3</v>
@@ -13690,9 +13690,9 @@
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
     </row>
-    <row r="508" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="B508" s="5">
         <v>1149.5999999999999</v>
@@ -13713,9 +13713,9 @@
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
     </row>
-    <row r="509" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="B509" s="5">
         <v>1147.2</v>
@@ -13736,9 +13736,9 @@
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
     </row>
-    <row r="510" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="B510" s="5">
         <v>1143.0999999999999</v>
@@ -13759,9 +13759,9 @@
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
     </row>
-    <row r="511" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="B511" s="5">
         <v>1138.4000000000001</v>
@@ -13782,9 +13782,9 @@
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
     </row>
-    <row r="512" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="B512" s="5">
         <v>1127.8</v>
@@ -13805,9 +13805,9 @@
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
     </row>
-    <row r="513" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="B513" s="5">
         <v>1120.3</v>
@@ -13828,9 +13828,9 @@
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
     </row>
-    <row r="514" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="B514" s="5">
         <v>1100.5</v>
@@ -13851,9 +13851,9 @@
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
     </row>
-    <row r="515" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="B515" s="5">
         <v>1100.5</v>
@@ -13874,9 +13874,9 @@
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
     </row>
-    <row r="516" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="B516" s="5">
         <v>1078.8</v>
